--- a/biology/Botanique/Famille_des_Folloïdes/Famille_des_Folloïdes.xlsx
+++ b/biology/Botanique/Famille_des_Folloïdes/Famille_des_Folloïdes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Famille_des_Follo%C3%AFdes</t>
+          <t>Famille_des_Folloïdes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Folloïdes est un groupe de cépages de vigne Vitis vinifera. Ces cépages étant d'abord réunis par leurs caractères communs, il a par la suite été prouvé qu'ils avaient un ancêtre commun. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Famille_des_Follo%C3%AFdes</t>
+          <t>Famille_des_Folloïdes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Guy Lavignac[1] les folloïdes viendraient du vignoble du sud-ouest, plus particulièrement de Gascogne. La folle blanche cépage à haut rendement a colonisé les vignobles à eau de vie, armagnac et cognac, mais aussi autrefois le vignoble de l'Entre-Deux-Mers. Il a rejoint la région nantaise ou il produit le gros plant du pays nantais. Le jurançon connaîtra un engouement lors de la replantation après le phylloxera grâce à ses rendements importants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Guy Lavignac les folloïdes viendraient du vignoble du sud-ouest, plus particulièrement de Gascogne. La folle blanche cépage à haut rendement a colonisé les vignobles à eau de vie, armagnac et cognac, mais aussi autrefois le vignoble de l'Entre-Deux-Mers. Il a rejoint la région nantaise ou il produit le gros plant du pays nantais. Le jurançon connaîtra un engouement lors de la replantation après le phylloxera grâce à ses rendements importants.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Famille_des_Follo%C3%AFdes</t>
+          <t>Famille_des_Folloïdes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Caractéristiques ampélographiques communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leur bourgeonnement est cotonneux blanc.
 Jeunes feuilles cotonneuses et jaunâtres.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Famille_des_Follo%C3%AFdes</t>
+          <t>Famille_des_Folloïdes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +593,55 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Folloïdes vrais
-Canaril (en)
+          <t>Folloïdes vrais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Canaril (en)
 Folle blanche
 Jurançon blanc
 Jurançon noir
 Montils
 Ondenc
-Sencit aux baies rouges
-Cépages apparentés
-Duras : sans l'inclure dans la famille, Guy Lavignac signale la ressemblance entre duras et canaril, ce dernier étant formellement cité comme membre de la famille ampélographique.
+Sencit aux baies rouges</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Famille_des_Folloïdes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Famille_des_Follo%C3%AFdes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cépages de la famille</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cépages apparentés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Duras : sans l'inclure dans la famille, Guy Lavignac signale la ressemblance entre duras et canaril, ce dernier étant formellement cité comme membre de la famille ampélographique.
 Len de l'el
 Meslier Saint-François</t>
         </is>
